--- a/Employee_Reports21/Sugathadasa Pattiwilage Q0376.xlsx
+++ b/Employee_Reports21/Sugathadasa Pattiwilage Q0376.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1268,11 +1268,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1315,11 +1315,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-82</v>
+        <v>-83</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1361,11 +1361,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-159</v>
+        <v>-160</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1407,11 +1407,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1489,11 +1489,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1535,11 +1535,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1581,11 +1581,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1617,11 +1617,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
